--- a/fuentes/contenidos/grado10/guion01/SolicitudGraficaMA_10_01_COREC110.xlsx
+++ b/fuentes/contenidos/grado10/guion01/SolicitudGraficaMA_10_01_COREC110.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\Archivos junio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado10\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -21,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="195">
   <si>
     <t>Fecha:</t>
   </si>
@@ -1782,8 +1782,8 @@
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>212013</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2474201</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>2430362</xdr:rowOff>
     </xdr:to>
@@ -1826,8 +1826,8 @@
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>529435</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2791623</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>3051762</xdr:rowOff>
     </xdr:to>
@@ -1865,15 +1865,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>816548</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3000376</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>3772512</xdr:rowOff>
+      <xdr:rowOff>3677448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1896,8 +1896,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16398875" y="8302624"/>
-          <a:ext cx="3023173" cy="3677263"/>
+          <a:off x="16430626" y="8310563"/>
+          <a:ext cx="2952750" cy="3582198"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,19 +1909,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>439120</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2867025</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2486418</xdr:rowOff>
+      <xdr:rowOff>2557463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1940,184 +1940,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16383000" y="12414249"/>
-          <a:ext cx="2661620" cy="2200669"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>508499</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1368581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16367125" y="15144750"/>
-          <a:ext cx="3572374" cy="1114581"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317501</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79087</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2063751</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1521241</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16668751" y="16731962"/>
-          <a:ext cx="1746250" cy="1442154"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>603749</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1273331</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16462375" y="18573750"/>
-          <a:ext cx="3572374" cy="1114581"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>174626</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>137938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>460376</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2235616</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16525876" y="19997563"/>
-          <a:ext cx="2540000" cy="2097678"/>
+          <a:off x="16668750" y="12239626"/>
+          <a:ext cx="2581275" cy="2438400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2845,8 +2669,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2861,10 +2685,11 @@
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="52.125" style="15" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.875" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="28.125" style="2" customWidth="1"/>
     <col min="16" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
@@ -3305,28 +3130,22 @@
     <row r="14" spans="1:16" s="11" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IMG05</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B14" s="62"/>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_10_01_COREC110_IMG05.jpg</v>
-      </c>
-      <c r="G14" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3336,9 +3155,7 @@
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J14" s="63" t="s">
-        <v>191</v>
-      </c>
+      <c r="J14" s="63"/>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
@@ -3348,28 +3165,22 @@
     <row r="15" spans="1:16" s="11" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IMG06</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B15" s="62"/>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_10_01_COREC110_IMG06.jpg</v>
-      </c>
-      <c r="G15" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3379,9 +3190,7 @@
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J15" s="63" t="s">
-        <v>191</v>
-      </c>
+      <c r="J15" s="63"/>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
@@ -3391,28 +3200,22 @@
     <row r="16" spans="1:16" s="11" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IMG07</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B16" s="62"/>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_10_01_COREC110_IMG07.jpg</v>
-      </c>
-      <c r="G16" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3432,28 +3235,22 @@
     <row r="17" spans="1:15" s="11" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>IMG08</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>190</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B17" s="62"/>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F10</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>155</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>MA_10_01_COREC110_IMG08.jpg</v>
-      </c>
-      <c r="G17" s="13">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
